--- a/biology/Zoologie/Anolis_scriptus/Anolis_scriptus.xlsx
+++ b/biology/Zoologie/Anolis_scriptus/Anolis_scriptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis scriptus est une espèce de sauriens de la famille des Dactyloidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis scriptus est une espèce de sauriens de la famille des Dactyloidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Antilles[1]. Elle se rencontre aux Bahamas et aux îles Turques-et-Caïques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Antilles. Elle se rencontre aux Bahamas et aux îles Turques-et-Caïques.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 76 mm et les femelles jusqu'à 64 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 76 mm et les femelles jusqu'à 64 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 avril 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 avril 2013) :
 Anolis scriptus leucophaeus Garman, 1888 d'Inagua
 Anolis scriptus mariguanae Cochran, 1931 de Mayaguana  et Booby Cay
 Anolis scriptus scriptus Garman, 1887 des îles Turques-et-Caïques
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Barbour &amp; Shreve, 1935 : Concerning some Bahamian reptiles, with notes on the fauna. Proceedings of the Boston Society of Natural History, vol. 40, p. 347-365 (texte intégral).
 Cochran, 1931 : New Bahaman Reptiles. Journal of the Washington Academy of Sciences, vol. 21, no 15, p. 39-41 (texte intégral).
